--- a/biology/Histoire de la zoologie et de la botanique/Yves_Séméria/Yves_Séméria.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yves_Séméria/Yves_Séméria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yves_S%C3%A9m%C3%A9ria</t>
+          <t>Yves_Séméria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Séméria, né le 24 août 1936 à Nice[1] et mort le 1er avril 2020 à Nice, est écrivain et professeur de philosophie à l’Université de Nice Sophia-Antipolis. Il est considéré[Par qui ?] comme un des spécialistes de Nietzsche en France[2].
-Il est docteur en biologie animale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Séméria, né le 24 août 1936 à Nice et mort le 1er avril 2020 à Nice, est écrivain et professeur de philosophie à l’Université de Nice Sophia-Antipolis. Il est considéré[Par qui ?] comme un des spécialistes de Nietzsche en France.
+Il est docteur en biologie animale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yves_S%C3%A9m%C3%A9ria</t>
+          <t>Yves_Séméria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le philosophe et l'insecte, Nicolas Malebranche (1638-1715) ou : l'entomologiste de Dieu 
 Supplément au Bulletin mensuel de la Société linnéenne de Lyon, 54e année, no 1, 1985.
